--- a/Coded Vids8-25.xlsx
+++ b/Coded Vids8-25.xlsx
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="11">
   <si>
-    <t>SID</t>
-  </si>
-  <si>
     <t>run</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>intensity</t>
+  </si>
+  <si>
+    <t>subjectID</t>
   </si>
 </sst>
 </file>
@@ -380,26 +380,26 @@
   <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -407,7 +407,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -421,7 +421,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -435,7 +435,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -449,7 +449,7 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -463,7 +463,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -477,7 +477,7 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -491,7 +491,7 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -505,7 +505,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -519,7 +519,7 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -533,7 +533,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>29</v>
@@ -547,7 +547,7 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -561,7 +561,7 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>31</v>
@@ -575,7 +575,7 @@
         <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>33</v>
@@ -589,7 +589,7 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>35</v>
@@ -603,7 +603,7 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>39</v>
@@ -617,7 +617,7 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>45</v>
@@ -631,7 +631,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>46</v>
@@ -645,7 +645,7 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>47</v>
@@ -659,7 +659,7 @@
         <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>48</v>
@@ -673,7 +673,7 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>51</v>
@@ -687,7 +687,7 @@
         <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>54</v>
@@ -701,7 +701,7 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>56</v>
@@ -715,7 +715,7 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>58</v>
@@ -729,7 +729,7 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>59</v>
@@ -743,7 +743,7 @@
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>60</v>
@@ -757,7 +757,7 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>61</v>
@@ -771,7 +771,7 @@
         <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>62</v>
@@ -785,7 +785,7 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>65</v>
@@ -799,7 +799,7 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>69</v>
@@ -813,7 +813,7 @@
         <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -841,7 +841,7 @@
         <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -855,7 +855,7 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>14</v>
@@ -869,7 +869,7 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -883,7 +883,7 @@
         <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>38</v>
@@ -897,7 +897,7 @@
         <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>39</v>
@@ -911,7 +911,7 @@
         <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>40</v>
@@ -925,7 +925,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>59</v>
@@ -939,7 +939,7 @@
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>60</v>
@@ -953,7 +953,7 @@
         <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>61</v>
@@ -967,7 +967,7 @@
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>62</v>
@@ -981,7 +981,7 @@
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1009,7 +1009,7 @@
         <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -1023,7 +1023,7 @@
         <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -1037,7 +1037,7 @@
         <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>40</v>
@@ -1068,7 +1068,7 @@
         <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>59</v>
@@ -1085,7 +1085,7 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>60</v>
@@ -1102,7 +1102,7 @@
         <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>28</v>
@@ -1144,7 +1144,7 @@
         <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>29</v>
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -1172,7 +1172,7 @@
         <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>56</v>
@@ -1186,7 +1186,7 @@
         <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>58</v>
@@ -1200,7 +1200,7 @@
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>59</v>
@@ -1214,7 +1214,7 @@
         <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>74</v>
@@ -1228,7 +1228,7 @@
         <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>75</v>
@@ -1242,7 +1242,7 @@
         <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>23</v>
@@ -1307,7 +1307,7 @@
         <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>25</v>
@@ -1321,7 +1321,7 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>37</v>
@@ -1335,7 +1335,7 @@
         <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>38</v>
@@ -1349,7 +1349,7 @@
         <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>42</v>
@@ -1363,7 +1363,7 @@
         <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69">
         <v>43</v>
@@ -1377,7 +1377,7 @@
         <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>53</v>
@@ -1394,7 +1394,7 @@
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>55</v>
@@ -1408,7 +1408,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>76</v>
@@ -1422,7 +1422,7 @@
         <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>78</v>
@@ -1436,7 +1436,7 @@
         <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>79</v>
@@ -1450,7 +1450,7 @@
         <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>23</v>
@@ -1464,7 +1464,7 @@
         <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -1478,7 +1478,7 @@
         <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>11</v>
@@ -1492,7 +1492,7 @@
         <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78">
         <v>12</v>
@@ -1506,7 +1506,7 @@
         <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79">
         <v>14</v>
@@ -1520,7 +1520,7 @@
         <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80">
         <v>15</v>
@@ -1534,7 +1534,7 @@
         <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81">
         <v>16</v>
@@ -1548,7 +1548,7 @@
         <v>121</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82">
         <v>17</v>
@@ -1562,7 +1562,7 @@
         <v>121</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83">
         <v>21</v>
@@ -1576,7 +1576,7 @@
         <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <v>22</v>
@@ -1590,7 +1590,7 @@
         <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>61</v>
@@ -1604,7 +1604,7 @@
         <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86">
         <v>62</v>
@@ -1618,7 +1618,7 @@
         <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>76</v>
@@ -1649,7 +1649,7 @@
         <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>77</v>
@@ -1663,7 +1663,7 @@
         <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>31</v>
@@ -1694,7 +1694,7 @@
         <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>71</v>
@@ -1861,7 +1861,7 @@
         <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>133</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>133</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>70</v>
@@ -1974,7 +1974,7 @@
         <v>133</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111">
         <v>32</v>
@@ -2025,7 +2025,7 @@
         <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>33</v>
@@ -2039,7 +2039,7 @@
         <v>134</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>34</v>
@@ -2053,7 +2053,7 @@
         <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>35</v>
@@ -2067,7 +2067,7 @@
         <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>36</v>
@@ -2084,7 +2084,7 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>46</v>
@@ -2098,7 +2098,7 @@
         <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>47</v>
@@ -2112,7 +2112,7 @@
         <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118">
         <v>49</v>
@@ -2129,7 +2129,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <v>51</v>
@@ -2143,7 +2143,7 @@
         <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>53</v>
@@ -2157,7 +2157,7 @@
         <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>69</v>
@@ -2171,7 +2171,7 @@
         <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>73</v>
@@ -2185,7 +2185,7 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123">
         <v>74</v>
@@ -2199,7 +2199,7 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>139</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -2247,7 +2247,7 @@
         <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127">
         <v>19</v>
@@ -2261,7 +2261,7 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>20</v>
@@ -2275,7 +2275,7 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129">
         <v>22</v>
@@ -2289,7 +2289,7 @@
         <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130">
         <v>74</v>
@@ -2303,7 +2303,7 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>75</v>
@@ -2317,7 +2317,7 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>76</v>
@@ -2331,7 +2331,7 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>77</v>
@@ -2345,7 +2345,7 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>69</v>
@@ -2393,7 +2393,7 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137">
         <v>70</v>
@@ -2407,7 +2407,7 @@
         <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <v>71</v>
@@ -2421,7 +2421,7 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -2435,7 +2435,7 @@
         <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -2449,7 +2449,7 @@
         <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141">
         <v>6</v>
@@ -2463,7 +2463,7 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142">
         <v>28</v>
@@ -2477,7 +2477,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143">
         <v>29</v>
@@ -2491,7 +2491,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144">
         <v>30</v>
@@ -2505,7 +2505,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>31</v>
@@ -2519,7 +2519,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146">
         <v>32</v>
@@ -2533,7 +2533,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147">
         <v>33</v>
@@ -2547,7 +2547,7 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148">
         <v>48</v>
@@ -2561,7 +2561,7 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149">
         <v>49</v>
@@ -2575,7 +2575,7 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150">
         <v>50</v>
@@ -2589,7 +2589,7 @@
         <v>145</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151">
         <v>57</v>
@@ -2603,7 +2603,7 @@
         <v>145</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152">
         <v>58</v>
@@ -2617,7 +2617,7 @@
         <v>145</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153">
         <v>59</v>
@@ -2631,7 +2631,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154">
         <v>16</v>
@@ -2648,7 +2648,7 @@
         <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>74</v>
@@ -2662,7 +2662,7 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C156">
         <v>76</v>
@@ -2676,7 +2676,7 @@
         <v>151</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>70</v>
@@ -2690,7 +2690,7 @@
         <v>151</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>152</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>152</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>157</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163">
         <v>40</v>
@@ -2789,7 +2789,7 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2823,7 +2823,7 @@
         <v>159</v>
       </c>
       <c r="B166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>61</v>
@@ -2837,7 +2837,7 @@
         <v>159</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>62</v>
@@ -2851,7 +2851,7 @@
         <v>159</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168">
         <v>63</v>
@@ -2865,7 +2865,7 @@
         <v>159</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>64</v>
@@ -2879,7 +2879,7 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170">
         <v>70</v>
@@ -2893,7 +2893,7 @@
         <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>71</v>
@@ -2907,7 +2907,7 @@
         <v>159</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172">
         <v>72</v>
@@ -2921,7 +2921,7 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>74</v>
@@ -2935,7 +2935,7 @@
         <v>159</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174">
         <v>75</v>
@@ -2949,7 +2949,7 @@
         <v>159</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175">
         <v>42</v>
@@ -2963,7 +2963,7 @@
         <v>159</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176">
         <v>53</v>
@@ -2977,7 +2977,7 @@
         <v>159</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177">
         <v>54</v>
@@ -2991,7 +2991,7 @@
         <v>160</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>33</v>
@@ -3005,7 +3005,7 @@
         <v>160</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179">
         <v>21</v>
@@ -3019,7 +3019,7 @@
         <v>160</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180">
         <v>63</v>
@@ -3033,7 +3033,7 @@
         <v>160</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181">
         <v>81</v>
@@ -3050,7 +3050,7 @@
         <v>160</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182">
         <v>82</v>
@@ -3064,7 +3064,7 @@
         <v>160</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>160</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184">
         <v>6</v>
@@ -3092,7 +3092,7 @@
         <v>160</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185">
         <v>26</v>
@@ -3106,7 +3106,7 @@
         <v>160</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>27</v>
@@ -3120,7 +3120,7 @@
         <v>160</v>
       </c>
       <c r="B187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>36</v>
@@ -3134,7 +3134,7 @@
         <v>160</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188">
         <v>53</v>
@@ -3148,7 +3148,7 @@
         <v>160</v>
       </c>
       <c r="B189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189">
         <v>54</v>
@@ -3162,7 +3162,7 @@
         <v>160</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190">
         <v>63</v>
@@ -3176,7 +3176,7 @@
         <v>160</v>
       </c>
       <c r="B191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191">
         <v>64</v>
@@ -3190,7 +3190,7 @@
         <v>160</v>
       </c>
       <c r="B192" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192">
         <v>65</v>
@@ -3204,7 +3204,7 @@
         <v>160</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193">
         <v>67</v>
@@ -3218,7 +3218,7 @@
         <v>160</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194">
         <v>68</v>
@@ -3232,7 +3232,7 @@
         <v>160</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195">
         <v>79</v>
@@ -3246,7 +3246,7 @@
         <v>160</v>
       </c>
       <c r="B196" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196">
         <v>80</v>
@@ -3260,7 +3260,7 @@
         <v>161</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>161</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>161</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -3302,7 +3302,7 @@
         <v>161</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200">
         <v>49</v>
@@ -3319,7 +3319,7 @@
         <v>162</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>162</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202">
         <v>9</v>
@@ -3347,7 +3347,7 @@
         <v>162</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203">
         <v>10</v>
@@ -3361,7 +3361,7 @@
         <v>163</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>163</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205">
         <v>50</v>
@@ -3392,7 +3392,7 @@
         <v>163</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206">
         <v>44</v>
@@ -3406,7 +3406,7 @@
         <v>164</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207">
         <v>7</v>
@@ -3420,7 +3420,7 @@
         <v>164</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C208">
         <v>8</v>
@@ -3434,7 +3434,7 @@
         <v>164</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209">
         <v>9</v>
@@ -3448,7 +3448,7 @@
         <v>164</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210">
         <v>10</v>
@@ -3462,7 +3462,7 @@
         <v>164</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>164</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212">
         <v>41</v>
@@ -3493,7 +3493,7 @@
         <v>164</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213">
         <v>42</v>
@@ -3507,7 +3507,7 @@
         <v>164</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214">
         <v>43</v>
@@ -3521,7 +3521,7 @@
         <v>164</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>164</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -3549,7 +3549,7 @@
         <v>164</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -3563,7 +3563,7 @@
         <v>164</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218">
         <v>65</v>
@@ -3577,7 +3577,7 @@
         <v>164</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219">
         <v>66</v>
@@ -3591,7 +3591,7 @@
         <v>164</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220">
         <v>67</v>
@@ -3605,7 +3605,7 @@
         <v>165</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>165</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>165</v>
       </c>
       <c r="B223" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>165</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>168</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C225">
         <v>32</v>
@@ -3687,7 +3687,7 @@
         <v>168</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226">
         <v>33</v>
@@ -3701,7 +3701,7 @@
         <v>168</v>
       </c>
       <c r="B227" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227">
         <v>24</v>
@@ -3715,7 +3715,7 @@
         <v>168</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228">
         <v>25</v>
@@ -3729,7 +3729,7 @@
         <v>168</v>
       </c>
       <c r="B229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229">
         <v>26</v>
@@ -3743,7 +3743,7 @@
         <v>168</v>
       </c>
       <c r="B230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230">
         <v>31</v>
@@ -3757,7 +3757,7 @@
         <v>168</v>
       </c>
       <c r="B231" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C231">
         <v>32</v>
@@ -3771,7 +3771,7 @@
         <v>168</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232">
         <v>33</v>
@@ -3785,7 +3785,7 @@
         <v>169</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233">
         <v>74</v>
@@ -3799,7 +3799,7 @@
         <v>169</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234">
         <v>75</v>
@@ -3813,7 +3813,7 @@
         <v>169</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235">
         <v>76</v>
@@ -3827,7 +3827,7 @@
         <v>170</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>170</v>
       </c>
       <c r="B237" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>171</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238">
         <v>33</v>
@@ -3869,7 +3869,7 @@
         <v>171</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239">
         <v>34</v>
@@ -3883,7 +3883,7 @@
         <v>173</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>173</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>174</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3934,7 +3934,7 @@
         <v>175</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>177</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>178</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245">
         <v>45</v>
@@ -3982,7 +3982,7 @@
         <v>178</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C246">
         <v>46</v>
@@ -3996,7 +3996,7 @@
         <v>178</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C247">
         <v>47</v>
@@ -4010,7 +4010,7 @@
         <v>178</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C248">
         <v>70</v>
@@ -4024,7 +4024,7 @@
         <v>178</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C249">
         <v>71</v>
@@ -4038,7 +4038,7 @@
         <v>178</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C250">
         <v>81</v>
@@ -4052,7 +4052,7 @@
         <v>178</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251">
         <v>82</v>
@@ -4066,7 +4066,7 @@
         <v>178</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C252">
         <v>83</v>
@@ -4080,7 +4080,7 @@
         <v>178</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C253">
         <v>84</v>
@@ -4094,7 +4094,7 @@
         <v>179</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254">
         <v>2</v>
@@ -4108,7 +4108,7 @@
         <v>179</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255">
         <v>5</v>
@@ -4122,7 +4122,7 @@
         <v>179</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256">
         <v>11</v>
@@ -4136,7 +4136,7 @@
         <v>179</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257">
         <v>37</v>
@@ -4150,7 +4150,7 @@
         <v>179</v>
       </c>
       <c r="B258" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C258">
         <v>62</v>
@@ -4164,7 +4164,7 @@
         <v>179</v>
       </c>
       <c r="B259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C259">
         <v>64</v>
@@ -4178,7 +4178,7 @@
         <v>179</v>
       </c>
       <c r="B260" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C260">
         <v>65</v>
@@ -4195,7 +4195,7 @@
         <v>179</v>
       </c>
       <c r="B261" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C261">
         <v>66</v>
@@ -4212,7 +4212,7 @@
         <v>181</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>181</v>
       </c>
       <c r="B263" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>182</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>184</v>
       </c>
       <c r="B265" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>184</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>184</v>
       </c>
       <c r="B267" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C267">
         <v>2</v>
@@ -4311,7 +4311,7 @@
         <v>184</v>
       </c>
       <c r="B268" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -4325,7 +4325,7 @@
         <v>184</v>
       </c>
       <c r="B269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269">
         <v>59</v>
@@ -4339,7 +4339,7 @@
         <v>184</v>
       </c>
       <c r="B270" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270">
         <v>73</v>
@@ -4353,7 +4353,7 @@
         <v>184</v>
       </c>
       <c r="B271" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C271">
         <v>74</v>
@@ -4367,7 +4367,7 @@
         <v>184</v>
       </c>
       <c r="B272" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C272">
         <v>75</v>
@@ -4381,7 +4381,7 @@
         <v>184</v>
       </c>
       <c r="B273" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C273">
         <v>76</v>
@@ -4395,7 +4395,7 @@
         <v>185</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>185</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>186</v>
       </c>
       <c r="B276" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C276">
         <v>11</v>
@@ -4443,7 +4443,7 @@
         <v>186</v>
       </c>
       <c r="B277" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C277">
         <v>12</v>
@@ -4457,7 +4457,7 @@
         <v>186</v>
       </c>
       <c r="B278" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C278">
         <v>13</v>
@@ -4471,7 +4471,7 @@
         <v>186</v>
       </c>
       <c r="B279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C279">
         <v>19</v>
@@ -4488,7 +4488,7 @@
         <v>186</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C280">
         <v>20</v>
@@ -4502,7 +4502,7 @@
         <v>187</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         <v>188</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282">
         <v>5</v>
@@ -4533,7 +4533,7 @@
         <v>188</v>
       </c>
       <c r="B283" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283">
         <v>6</v>
@@ -4547,7 +4547,7 @@
         <v>188</v>
       </c>
       <c r="B284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C284">
         <v>67</v>
@@ -4561,7 +4561,7 @@
         <v>193</v>
       </c>
       <c r="B285" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>195</v>
       </c>
       <c r="B286" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C286">
         <v>64</v>
@@ -4592,7 +4592,7 @@
         <v>195</v>
       </c>
       <c r="B287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C287">
         <v>65</v>
@@ -4606,7 +4606,7 @@
         <v>195</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C288">
         <v>71</v>
@@ -4620,7 +4620,7 @@
         <v>195</v>
       </c>
       <c r="B289" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C289">
         <v>72</v>
@@ -4634,7 +4634,7 @@
         <v>195</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C290">
         <v>73</v>
@@ -4648,7 +4648,7 @@
         <v>195</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C291">
         <v>74</v>
@@ -4662,7 +4662,7 @@
         <v>195</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C292">
         <v>75</v>
@@ -4676,7 +4676,7 @@
         <v>196</v>
       </c>
       <c r="B293" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -4690,7 +4690,7 @@
         <v>196</v>
       </c>
       <c r="B294" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294">
         <v>2</v>
@@ -4704,7 +4704,7 @@
         <v>196</v>
       </c>
       <c r="B295" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295">
         <v>59</v>
@@ -4718,7 +4718,7 @@
         <v>196</v>
       </c>
       <c r="B296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296">
         <v>60</v>
@@ -4732,7 +4732,7 @@
         <v>197</v>
       </c>
       <c r="B297" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>197</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C298">
         <v>14</v>
@@ -4763,7 +4763,7 @@
         <v>197</v>
       </c>
       <c r="B299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C299">
         <v>15</v>
@@ -4777,7 +4777,7 @@
         <v>197</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C300">
         <v>28</v>
